--- a/biology/Botanique/Porte-greffe/Porte-greffe.xlsx
+++ b/biology/Botanique/Porte-greffe/Porte-greffe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un porte-greffe ou hypobiote, en agriculture, est une plante ligneuse ou herbacée décapitée pourvue d'un système racinaire sur laquelle on implante un greffon ou épibiote dans le but d'effectuer un greffage. Selon les cas, ce peut-être un clone, provenant de la multiplication végétative (bouturage, marcottage...) ou bien d’un semis qui peut-être issu d'un croisement spontané. Dans ce dernier cas, en arboriculture fruitière, on distingue les francs aux fruits sucrés des sauvageons aux fruits âpres.
 </t>
@@ -511,7 +523,9 @@
           <t>Sauvageon</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sauvageons (espèces végétales faisant partie de la flore sauvage; n'ayant fait l'objet d'aucune sélection humaine) utilisés comme porte-greffes ont poussé spontanément dans la nature; ils sont prélevés ou laissés en place et greffés. Ces espèces peuvent aussi avoir été multipliées par l'homme de toutes les façons classiques.
 </t>
@@ -542,7 +556,9 @@
           <t>Franc</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante issue de la graine (semis).
 </t>
@@ -573,7 +589,9 @@
           <t>Cultivar</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cultivars utilisés comme porte-greffes sont généralement sélectionnés pour leurs qualités de vigueur, morphologie, adaptation au type de sol et au climat, résistance aux maladies… qu'ils vont transmettre au greffon.
 Seul le bas (les racines) du porte-greffe doit être mis en terre. Le point de greffe ne doit pas être enterré au risque que le greffon se bouture dans le sol ce qui ferait perdre l'intérêt du greffage réalisé.
@@ -606,7 +624,9 @@
           <t>Porte-greffes pour agrumes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La majorité des agrumes supporte bien les climats froids (voire des températures négatives pour certains, −20 °C) pour la partie aérienne, mais les racines sont souvent plus sensibles. On utilise donc une espèce rustique comme porte-greffe (notamment le Poncirus, Forner Alcaide 5 ou encore Citrumello 4475), ce qui permet à certains agrumes greffés sur cet arbuste de pousser là où ils ne le pourraient pas avec leurs propres racines.
 </t>
@@ -637,9 +657,11 @@
           <t>Porte-greffes pour légumes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le greffage des légumes est une pratique ancienne. Elle a été pratiquée sur certaines cucurbitacées telles que la calebasse (Lagenaria siceraria) en Chine dès le Ier siècle av. J.-C.[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le greffage des légumes est une pratique ancienne. Elle a été pratiquée sur certaines cucurbitacées telles que la calebasse (Lagenaria siceraria) en Chine dès le Ier siècle av. J.-C..
 Il s'est vraiment développé à partir de 1920 au Japon avec le greffage de la pastèque sur courge (Cucurbita). Il concerne essentiellement les légumes-fruits de la famille des solanacées et des cucurbitacées. Les pastèques sur courges, puis les aubergines, les melons, les concombres, et plus récemment les tomates et les piments.
 Les plantes sont rendues plus vigoureuses et plus résistantes à de nombreuses maladies liées au sol.
 Les porte-greffes sont souvent des espèces voisines ou des croisements.
@@ -673,7 +695,9 @@
           <t>Porte-greffes pour pommiers</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les porte-greffes les plus utilisés pour la culture des pommiers ont été développés par la East Malling Research Station en Angleterre à partir de 1912. Ils sont connus sous le nom de Malling series et Malling-Merton series.
 Dans le cas du jardin familial, des porte-greffe nanifiants permettent d'obtenir des arbres d'environ 2,50 m de haut, donc ne nécessitant pas l'usage d'une échelle.
@@ -709,14 +733,16 @@
           <t>Porte-greffes pour poiriers</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour greffer des poiriers, on peut utiliser les porte-greffes suivants :
 les semis de poiriers (Pyrus communis) qui donnent des porte-greffes de forte vigueur et souvent sensibles au feu bactérien. Le franc de poirier Kirchensaller et la série américaine de poiriers OHF (croisements des années 1930 de Old Home et de Farmingdale, résistants au feu bactérien mais difficilement bouturables) sont prometteurs mais encore peu répandus…
 les semis ou boutures de poiriers de Chine (Pyrus calleryana) utilisés comme porte-greffes pour les poiriers communs et les nashis (Pyrus pyrifolia). Certains cultivars sont résistants aux maladies (chancre, feu bactérien, etc.) mais leur usage est surtout développé en Chine et aux États-Unis.
 Cormier (Sorbus domestica), sorbier des oiseleurs et aubépine (Crataegus sp.) ont été très utilisés mais sont aujourd'hui d'usage plus anecdotique, réservés aux particuliers et souvent de faible longévité.
-les cognassiers, qui sont des alternatives de vigueur moyenne très utilisées en France (même si des incompatibilités avec les variétés Williams et Guyot, très cultivées commercialement, posent problème). Si le cognassier tolère des sols argileux, en sols calcaires, il présente une chlorose due au blocage du fer. Cela a amené les sélectionneurs à tenter de nouvelles obtentions d'individus résistants à la chlorose, notamment à partir du cultivar BA29[2].
-En parallèle, des croisements de poiriers et des sélections de cognassiers sont toujours testés... Certaines études semblent montrer que certains semis de poirier 'Williams' présentent une vigueur réduite et de faibles symptômes de chlorose[3]
+les cognassiers, qui sont des alternatives de vigueur moyenne très utilisées en France (même si des incompatibilités avec les variétés Williams et Guyot, très cultivées commercialement, posent problème). Si le cognassier tolère des sols argileux, en sols calcaires, il présente une chlorose due au blocage du fer. Cela a amené les sélectionneurs à tenter de nouvelles obtentions d'individus résistants à la chlorose, notamment à partir du cultivar BA29.
+En parallèle, des croisements de poiriers et des sélections de cognassiers sont toujours testés... Certaines études semblent montrer que certains semis de poirier 'Williams' présentent une vigueur réduite et de faibles symptômes de chlorose
 </t>
         </is>
       </c>
@@ -745,7 +771,9 @@
           <t>Porte-greffes pour prunus</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour greffer différents types de prunus (cerisiers, pruniers, pêchers, abricotiers, amandiers), on peut utiliser plusieurs types de porte-greffes selon la vigueur mais surtout en fonction du type de sol.
 pour les cerisiers
@@ -800,10 +828,12 @@
           <t>Porte-greffes pour rosiers</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">L’utilisation de porte-greffes pour les rosiers est une pratique répandue dans de très nombreux pays avec des spécificités locales très différentes. 
-Ils peuvent être produits soit par boutures, soit par semis[4]. 
+Ils peuvent être produits soit par boutures, soit par semis. 
 Les porte-greffes utilisés pour les rosiers sont souvent des églantiers (rosa canina) qui supportent bien les sols calcaires. Leur enracinement est cependant difficile et ont tendance à drageonner.
 </t>
         </is>
@@ -833,7 +863,9 @@
           <t>Porte-greffes pour la vigne</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">La vigne est greffée, à cause d'un insecte radicicole, le phylloxéra. Il attaque les racines de la vigne et les détruit. Seules les vignes américaines, issues du continent d'origine du ravageur, le tolèrent. Leurs espèces ont été utilisées pour servir de porte-greffe.
 Seuls les sols sableux et inondables, lieux où le phylloxéra ne peut survivre, peuvent porter des vignes franches de pied (sans greffage).
